--- a/本体/超宽频带被动雷达寻的器测向技术.xlsx
+++ b/本体/超宽频带被动雷达寻的器测向技术.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TIAN/实验室/雷达抽取/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="21840" windowHeight="12615" tabRatio="749" activeTab="3"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="21840" windowHeight="15480" tabRatio="749" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="步骤1-A概念提取（按章节）" sheetId="1" r:id="rId1"/>
@@ -13,9 +18,12 @@
     <sheet name="步骤3-B层次关系细分" sheetId="4" r:id="rId4"/>
     <sheet name="步骤3-C主要实例" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="279">
   <si>
     <t>圆柱螺旋天线</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,7 +1110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1477,7 +1485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1487,20 +1495,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.25" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1526,57 +1534,57 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1587,317 +1595,317 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="3:7">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="3:7">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="3:7">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="3:7">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:7">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="3:5">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="3:5">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="3:5">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="3:5">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="3:5">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="3:5">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="3:5">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="3:5">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="3:5">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="3:5">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="3:5">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="3:5">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="3:5">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="3:5">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="3:5">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
         <v>88</v>
       </c>
@@ -1905,7 +1913,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
         <v>79</v>
       </c>
@@ -1913,7 +1921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
         <v>78</v>
       </c>
@@ -1921,7 +1929,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
         <v>89</v>
       </c>
@@ -1929,7 +1937,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
         <v>90</v>
       </c>
@@ -1937,12 +1945,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
         <v>81</v>
       </c>
@@ -1950,7 +1958,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
         <v>82</v>
       </c>
@@ -1958,7 +1966,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
         <v>83</v>
       </c>
@@ -1966,7 +1974,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
         <v>84</v>
       </c>
@@ -1974,7 +1982,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
         <v>93</v>
       </c>
@@ -1982,7 +1990,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
         <v>94</v>
       </c>
@@ -1990,7 +1998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
         <v>97</v>
       </c>
@@ -1998,118 +2006,118 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E94" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E95" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
         <v>103</v>
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>155</v>
       </c>
@@ -2117,22 +2125,22 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
         <v>140</v>
       </c>
@@ -2140,7 +2148,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>141</v>
       </c>
@@ -2148,7 +2156,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
         <v>143</v>
       </c>
@@ -2156,12 +2164,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>41</v>
       </c>
@@ -2169,22 +2177,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E124" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E125" t="s">
         <v>124</v>
       </c>
@@ -2192,7 +2200,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E126" t="s">
         <v>133</v>
       </c>
@@ -2200,7 +2208,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E127" t="s">
         <v>157</v>
       </c>
@@ -2208,7 +2216,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
         <v>146</v>
       </c>
@@ -2216,7 +2224,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E129" t="s">
         <v>147</v>
       </c>
@@ -2224,7 +2232,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E130" t="s">
         <v>149</v>
       </c>
@@ -2232,12 +2240,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E134" t="s">
         <v>119</v>
       </c>
@@ -2245,12 +2253,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E136" t="s">
         <v>123</v>
       </c>
@@ -2258,12 +2266,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E138" t="s">
         <v>128</v>
       </c>
@@ -2271,7 +2279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E139" t="s">
         <v>129</v>
       </c>
@@ -2279,12 +2287,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>113</v>
       </c>
@@ -2292,7 +2300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>117</v>
       </c>
@@ -2300,7 +2308,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>118</v>
       </c>
@@ -2308,7 +2316,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>132</v>
       </c>
@@ -2322,20 +2330,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="3" width="11.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="2" max="3" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>135</v>
       </c>
@@ -2353,6 +2361,88 @@
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2365,13 +2455,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
       <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>159</v>
       </c>
@@ -2385,692 +2475,692 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>163</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>171</v>
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>172</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>183</v>
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
         <v>191</v>
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
         <v>193</v>
       </c>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
         <v>227</v>
       </c>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
         <v>194</v>
       </c>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="6"/>
       <c r="C56" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="6"/>
       <c r="C57" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="6"/>
       <c r="C58" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="6" t="s">
         <v>200</v>
       </c>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="7" t="s">
         <v>232</v>
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="7" t="s">
         <v>233</v>
       </c>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="7" t="s">
         <v>234</v>
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="6" t="s">
         <v>224</v>
       </c>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="6" t="s">
         <v>225</v>
       </c>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C67" s="9"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>226</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="9"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="10" t="s">
         <v>191</v>
       </c>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="10" t="s">
         <v>222</v>
       </c>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="10"/>
       <c r="C71" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="10"/>
       <c r="C72" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="10"/>
       <c r="C73" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C74" s="9"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="10" t="s">
         <v>228</v>
       </c>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="6"/>
       <c r="C80" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="6"/>
       <c r="C82" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="11" t="s">
         <v>175</v>
       </c>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="11" t="s">
         <v>139</v>
       </c>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C93" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C94" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C95" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>240</v>
       </c>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>245</v>
       </c>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5" t="s">
         <v>250</v>
@@ -3084,21 +3174,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>195</v>
       </c>
@@ -3110,7 +3200,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
         <v>196</v>
@@ -3128,7 +3218,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="5" t="s">
         <v>215</v>
@@ -3140,7 +3230,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -3152,7 +3242,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -3163,7 +3253,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="5" t="s">
         <v>187</v>
@@ -3175,7 +3265,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -3187,7 +3277,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -3199,7 +3289,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
@@ -3211,7 +3301,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
         <v>86</v>
@@ -3223,7 +3313,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
@@ -3235,7 +3325,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -3247,205 +3337,285 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>205</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="C22" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="C23" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="C24" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="C25" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="C26" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="C27" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="C28" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="C29" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="C30" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="C31" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="C32" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="5"/>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="5"/>
+      <c r="C55" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3462,59 +3632,59 @@
       <selection activeCell="B17" sqref="B17:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>149</v>
       </c>
